--- a/design.xlsx
+++ b/design.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\golam\source\repos\md-asikurrahman\questionBank.APP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\golam\Source\Repos\golamhabibpalash\QuestionBank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42AB579-8556-4514-8B07-C32F886FCCAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3C419B-C018-4202-85B6-4D547BBA8F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11295" xr2:uid="{A67782AE-9E54-4AAF-A33F-A69B4C1A3311}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A67782AE-9E54-4AAF-A33F-A69B4C1A3311}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>Class</t>
   </si>
@@ -75,15 +75,68 @@
   </si>
   <si>
     <t>Clear</t>
+  </si>
+  <si>
+    <t>Noble Residential School</t>
+  </si>
+  <si>
+    <t>Exam</t>
+  </si>
+  <si>
+    <t>Type Three</t>
+  </si>
+  <si>
+    <t>Six (6)</t>
+  </si>
+  <si>
+    <t>Bangla</t>
+  </si>
+  <si>
+    <t>Marks</t>
+  </si>
+  <si>
+    <t>বিজ্ঞানের শিক্ষক ক্লাসে পরিমাপ সম্পর্কে পড়াতে গিয়ে একজন ছাত্রকে একটি কাঠের টুকরার দৈর্ঘ্য মাপতে বললেন। সে পরিমাপ করে ২.৫ মিটার দৈর্ঘ্য পেল। এরপর তিনি শিক্ষার্থীদেরকে দৈনন্দিন জীবনে পরিমাপের প্রয়োজনীয়তা সম্পর্কে ধারণা দিলেন এবং কাঠের টুকরাটি কেন মিটারে অর্থাৎ আন্তর্জাতিক এককে মাপা হলো, তাও ব্যাখ্যা করলেন।</t>
+  </si>
+  <si>
+    <t>a)</t>
+  </si>
+  <si>
+    <t>b)</t>
+  </si>
+  <si>
+    <t>c)</t>
+  </si>
+  <si>
+    <t>d)</t>
+  </si>
+  <si>
+    <t>পরিমাপ বলতে কী বোঝ?</t>
+  </si>
+  <si>
+    <t>একটি কাঠের টুকরার দৈর্ঘ্য ২.৫ মিটার— বিষয়টি ব্যাখ্যা করো।</t>
+  </si>
+  <si>
+    <t>উদ্দীপকে যে পদ্ধতির কথা বলা হয়েছে তার এককগুলোর একটি ছক তৈরি করো।</t>
+  </si>
+  <si>
+    <t>আমাদের দৈনন্দিন জীবনে শিক্ষকের পড়ানো বিষয়টির প্রয়োজনীয়তা কতটুকু বিশ্লেষণ করো।</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -122,7 +175,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -154,11 +207,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -166,25 +301,79 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555CE179-F24E-4B7A-B343-10A74C9FE93F}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,22 +735,22 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="8" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -572,26 +761,26 @@
       <c r="F3" s="4"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -608,19 +797,19 @@
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="8" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="7"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="5"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -640,36 +829,36 @@
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="8" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -686,20 +875,20 @@
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
@@ -716,20 +905,20 @@
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
@@ -746,20 +935,20 @@
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
@@ -776,23 +965,23 @@
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="8" t="s">
         <v>12</v>
       </c>
       <c r="K19" s="12" t="s">
@@ -802,8 +991,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:L15"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="C2:E2"/>
@@ -822,7 +1009,430 @@
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:L15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11656AEE-65C5-469C-B99D-3B8A4E7C8529}">
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="24"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="26"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="27"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="27"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="15">
+        <v>20</v>
+      </c>
+      <c r="L5" s="29"/>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25">
+        <v>1</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="30"/>
+    </row>
+    <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="31"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="31"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
+      <c r="B9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="B10" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="27"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="25">
+        <v>2</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="31"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="31"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="31"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="34"/>
+      <c r="B20" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="37">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="B14:L16"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="B6:L8"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G5:H5"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:F3" xr:uid="{21909E62-91F3-4957-8CAC-BC5F986B7F65}">
+      <formula1>"Type One, Type Two, Type Three"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>